--- a/Day5/nhan/pandas_simple.xlsx
+++ b/Day5/nhan/pandas_simple.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Nathan" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Nhan</t>
   </si>
   <si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>Duc Nhan</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -89,8 +95,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,50 +392,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>201</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>301</v>
       </c>
     </row>

--- a/Day5/nhan/pandas_simple.xlsx
+++ b/Day5/nhan/pandas_simple.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Nhan</t>
   </si>
@@ -433,4 +434,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>